--- a/data/hotels_by_city/Dallas/Dallas_shard_583.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_583.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,503 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r478529869-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>56555</t>
+  </si>
+  <si>
+    <t>1597706</t>
+  </si>
+  <si>
+    <t>478529869</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Animal Friendly But....</t>
+  </si>
+  <si>
+    <t>Animal friendly hotel with no extra cost, however it did have its issues. At first everything was cool. It had a good area for our dog to run and get some of his energy out, but you could hear constant barking by dogs that had been left for hours. We also had what sounded like a herd of animals above us until about 4 in the morning.The room itself was clean, smaller but clean. We did have an issue with our door...see photos. Didn't see any others like that, but definitely something that needed fixing.Ultimately, you get what you pay for.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r477146347-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>477146347</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Stayed while at NASCAR</t>
+  </si>
+  <si>
+    <t>We stayed here while we attended the NASCAR race. It is very close to the track and very easy to get to and back from the track. The staff was great and very helpful. The rooms are a bit small and nothing special, after all it is a MOTEL 6 and I did not expect any different. The room was clean, maid service was not the best but we got through it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r465585742-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>465585742</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Good Value, Clean Room, Comfortable Bed</t>
+  </si>
+  <si>
+    <t>Low-flow faucet was a little irritating but the room was clean and the staff was friendly and attentive. The A/C runs quietly and cool, not too much road noise and easy on/off the highway access. Really close to the Racetrack, probably could walk. Really, for the price, you couldn't do much better.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r386716289-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>386716289</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Staying with service dogs</t>
+  </si>
+  <si>
+    <t>People at this Motel 6 were very considerate and accommodating.  Clean room, good food.  Easy on and off the Hwy.  I really appreciated the handicap accessible room on the main floor nearest the lobby.  It made walking our service dogs a lot easier.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r365897192-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>365897192</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Close to track</t>
+  </si>
+  <si>
+    <t>Motel is across the road from Texas Motor Speedway. That's the highlight. Nothing fancy. Motel 6 cant really expect much. No breakfast. TV didn't work. No bathtub only shower. Room was tiny. Reserved a double, they gave me a single. It is really close to the track and is overpriced for events. Leaving the track was a problem to get to the motel because of the barricades that were set up.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r360047696-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>360047696</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Brand new &amp; modern!</t>
+  </si>
+  <si>
+    <t>I got a room here during off-peak times.... Meaning,  there wasn't a race going on nearby.  I think the rate was only $60 then.  During events... It's much higher.  Anyways,  clean hallways, room, linens, bathroom,  flooring.  Nice lighting choices,  flat screen tv, &amp; smoking was permitted in select rooms. Multiple floors high... Wheelchair access, had elevator. Nice staff,  vending machines at lobby,  &amp; a machine for misc items used during traveling if you forgot something basic.  I have stayed in probably 20 Motel 6 and this one was absolutely... Hands down... The VERY BEST ONE.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r333067429-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>333067429</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; new</t>
+  </si>
+  <si>
+    <t>I spent over a week here (Thanksgiving 2015) and the room &amp; motel were very clean. I chose it because it was 5 minutes from my family.The front desk staff were very nice with one exception.  After being there for 5 days, I decided to stay past my initial check out date and had discussed this with other staff but I had not yet paid for the additional night(s).  I was called by the front desk to come down and pay.  I do not move quickly enough apparently and a staff member came up and knocked very hard and said 'management'.  She felt the need to exercise her authority, it was rediculous.  I couldn't very well have planned to sneak out without paying. I despise this type of treatment.  BUT, the place was clean &amp; new so despite this ONE incident which does not take away from the motel itself, I would recommend it! The beds are futon quality so not the most comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I spent over a week here (Thanksgiving 2015) and the room &amp; motel were very clean. I chose it because it was 5 minutes from my family.The front desk staff were very nice with one exception.  After being there for 5 days, I decided to stay past my initial check out date and had discussed this with other staff but I had not yet paid for the additional night(s).  I was called by the front desk to come down and pay.  I do not move quickly enough apparently and a staff member came up and knocked very hard and said 'management'.  She felt the need to exercise her authority, it was rediculous.  I couldn't very well have planned to sneak out without paying. I despise this type of treatment.  BUT, the place was clean &amp; new so despite this ONE incident which does not take away from the motel itself, I would recommend it! The beds are futon quality so not the most comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r325609986-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>325609986</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Nice Motel 6</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 during NASCAR weekend  because I could not find any other hotels with an available room I don't normally stay at Motel 6 and I was a little nervous about staying here due to some of the previous reviews however I was pleasantly surprised this is a nice Motel 6 our room was very clean and modern like one person said very IKEA like. The rooms are small but very comfy. The beds are a little hard but I sleep just fine. I stayed at the motel with me and my mother and also felt very safe staying here. I would recommend staying here specially for the price and location to Texas Motor Speedway.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel 6 during NASCAR weekend  because I could not find any other hotels with an available room I don't normally stay at Motel 6 and I was a little nervous about staying here due to some of the previous reviews however I was pleasantly surprised this is a nice Motel 6 our room was very clean and modern like one person said very IKEA like. The rooms are small but very comfy. The beds are a little hard but I sleep just fine. I stayed at the motel with me and my mother and also felt very safe staying here. I would recommend staying here specially for the price and location to Texas Motor Speedway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r320342905-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>320342905</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Move past the light left on</t>
+  </si>
+  <si>
+    <t>Spend more get more. No bfast no free WiFi no exercise but free hair in the shower for you. Uncomfortable beds on platforms. bad free coffee At least there's a tv that worked. Thermostat had to be turned down every hour or the heater kicked on. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Ft Worth Northlake - Speedway, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Spend more get more. No bfast no free WiFi no exercise but free hair in the shower for you. Uncomfortable beds on platforms. bad free coffee At least there's a tv that worked. Thermostat had to be turned down every hour or the heater kicked on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r263064373-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>263064373</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Top Motel 6</t>
+  </si>
+  <si>
+    <t>I try to get hotels a notch or two above Motel 6 establishments. On this trip, my options were $140am per night, or stay in this Motel 6. I read the reviews about smelling of smoke and horrible beds. I was somewhat dreaded my stay.Upon arrival, I really like how secure the parking area felt. There was a cigarette smell when I entered the lobby. But, it was not overwhelming.The staff here are the most friendly I have ever experienced at any Motel 6. They really make you feel appreciated. I have never seen a Motel 6 with these kind of vending machines. They have drink machines, ice cream machines, candy, chips, cookies, hot and cold sandwiches, breakfasts, deserts, pigs in a blanket, hamburgers, etc etc.. Remarkable!My room was well appointed, and was very comfortable, including the bed. Very modern, very clean and absent of any signs of the smell of smoke. Plenty of receptacles for charging all your electronics. Great light switch locations, and a very efficient, comfortable use of the space. I would stay again without a second thought.I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I try to get hotels a notch or two above Motel 6 establishments. On this trip, my options were $140am per night, or stay in this Motel 6. I read the reviews about smelling of smoke and horrible beds. I was somewhat dreaded my stay.Upon arrival, I really like how secure the parking area felt. There was a cigarette smell when I entered the lobby. But, it was not overwhelming.The staff here are the most friendly I have ever experienced at any Motel 6. They really make you feel appreciated. I have never seen a Motel 6 with these kind of vending machines. They have drink machines, ice cream machines, candy, chips, cookies, hot and cold sandwiches, breakfasts, deserts, pigs in a blanket, hamburgers, etc etc.. Remarkable!My room was well appointed, and was very comfortable, including the bed. Very modern, very clean and absent of any signs of the smell of smoke. Plenty of receptacles for charging all your electronics. Great light switch locations, and a very efficient, comfortable use of the space. I would stay again without a second thought.I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r259488666-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>259488666</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Incredible Value, willing to overlook minor flaws</t>
+  </si>
+  <si>
+    <t>Let me start off by saying this hotel was a pleasant surprise.  I stayed here with my young daughter while we were in town briefly.  Little did I know, Texas was about to get snow, which I thought never happened there.  The front desk staff was so helpful in educating me on how the area shuts down with bad weather.  Even things like Wal Mart and Grocery Stores close.  Thanks to her helpful advice, we altered our plans a bit and went out and purchased supplies  just in case we didn't make it out the next day.  The staff continued to be friendly, knowledgeable, and helpful throughout our entire visit.  I think the staff is the number one asset of this hotel.
+The hotel location is ideal.  It's very close to a gas station so that is convenient for filling up.  It's second from 114, great for commuting.  It's maybe 30 minutes to DFW and 40 minutes to DAL.  We were in town primarily to visit Southlake, which was about 10 minutes away.
+The front lobby isn't glamorous but it's efficient.  They have vending machines with every kind of drink and food you could want.  They have elevators and an ice machine and laundry services.
+Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room...Let me start off by saying this hotel was a pleasant surprise.  I stayed here with my young daughter while we were in town briefly.  Little did I know, Texas was about to get snow, which I thought never happened there.  The front desk staff was so helpful in educating me on how the area shuts down with bad weather.  Even things like Wal Mart and Grocery Stores close.  Thanks to her helpful advice, we altered our plans a bit and went out and purchased supplies  just in case we didn't make it out the next day.  The staff continued to be friendly, knowledgeable, and helpful throughout our entire visit.  I think the staff is the number one asset of this hotel.The hotel location is ideal.  It's very close to a gas station so that is convenient for filling up.  It's second from 114, great for commuting.  It's maybe 30 minutes to DFW and 40 minutes to DAL.  We were in town primarily to visit Southlake, which was about 10 minutes away.The front lobby isn't glamorous but it's efficient.  They have vending machines with every kind of drink and food you could want.  They have elevators and an ice machine and laundry services.Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room feel new and cheery.  The bathroom was standard but clean.  There is no view, it's pretty much a parking lot and other hotels.  There was a TV in the room, storage, a mini fridge, two queen beds, and a little sitting area with a table and chairs to do work or eat at.My only problems were the linens smelled like smoke, though our room did not.  And the mini fridge was leaking so they had a rag in there to soak up water which I thought was gross.After my stay, I was emailed a survey.  I took the survey and graded them very honestly and did mention the linens smelling like smoke and the leaky fridge.  Within 24 hours, I had an email from the property manager thanking me for my feedback and letting me know that they were very sorry and were addressing my concerns and that would not happen again.  I felt this was extremely professional and handled very well.For a $54 a night hotel, I was blown away.  I felt very safe, and would stay here again.  I also feel comfortable recommending this place for my friends when they come into town.  My parents however, are use to more 4 star type accomodations, so this is not what I would recommend for people that expect what comes with a 4 star hotel.  But if you aren't into frills, and want a good deal, you can not beat this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start off by saying this hotel was a pleasant surprise.  I stayed here with my young daughter while we were in town briefly.  Little did I know, Texas was about to get snow, which I thought never happened there.  The front desk staff was so helpful in educating me on how the area shuts down with bad weather.  Even things like Wal Mart and Grocery Stores close.  Thanks to her helpful advice, we altered our plans a bit and went out and purchased supplies  just in case we didn't make it out the next day.  The staff continued to be friendly, knowledgeable, and helpful throughout our entire visit.  I think the staff is the number one asset of this hotel.
+The hotel location is ideal.  It's very close to a gas station so that is convenient for filling up.  It's second from 114, great for commuting.  It's maybe 30 minutes to DFW and 40 minutes to DAL.  We were in town primarily to visit Southlake, which was about 10 minutes away.
+The front lobby isn't glamorous but it's efficient.  They have vending machines with every kind of drink and food you could want.  They have elevators and an ice machine and laundry services.
+Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room...Let me start off by saying this hotel was a pleasant surprise.  I stayed here with my young daughter while we were in town briefly.  Little did I know, Texas was about to get snow, which I thought never happened there.  The front desk staff was so helpful in educating me on how the area shuts down with bad weather.  Even things like Wal Mart and Grocery Stores close.  Thanks to her helpful advice, we altered our plans a bit and went out and purchased supplies  just in case we didn't make it out the next day.  The staff continued to be friendly, knowledgeable, and helpful throughout our entire visit.  I think the staff is the number one asset of this hotel.The hotel location is ideal.  It's very close to a gas station so that is convenient for filling up.  It's second from 114, great for commuting.  It's maybe 30 minutes to DFW and 40 minutes to DAL.  We were in town primarily to visit Southlake, which was about 10 minutes away.The front lobby isn't glamorous but it's efficient.  They have vending machines with every kind of drink and food you could want.  They have elevators and an ice machine and laundry services.Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room feel new and cheery.  The bathroom was standard but clean.  There is no view, it's pretty much a parking lot and other hotels.  There was a TV in the room, storage, a mini fridge, two queen beds, and a little sitting area with a table and chairs to do work or eat at.My only problems were the linens smelled like smoke, though our room did not.  And the mini fridge was leaking so they had a rag in there to soak up water which I thought was gross.After my stay, I was emailed a survey.  I took the survey and graded them very honestly and did mention the linens smelling like smoke and the leaky fridge.  Within 24 hours, I had an email from the property manager thanking me for my feedback and letting me know that they were very sorry and were addressing my concerns and that would not happen again.  I felt this was extremely professional and handled very well.For a $54 a night hotel, I was blown away.  I felt very safe, and would stay here again.  I also feel comfortable recommending this place for my friends when they come into town.  My parents however, are use to more 4 star type accomodations, so this is not what I would recommend for people that expect what comes with a 4 star hotel.  But if you aren't into frills, and want a good deal, you can not beat this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r255777212-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>255777212</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel my only complaint would be the beds are like sleeping on an elephants back and the toilets in our room and im sure its the same in the rest of the building would not flush very well but all in all the staff was very kind and it was a nice 2 day stay! </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r211257325-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>211257325</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Smokey lobby</t>
+  </si>
+  <si>
+    <t>We have never stayed in a Motel 6. Pictures are better than the experience. The lobby was smokey like stale cigarettes.  Beds were super hard with a slight bend in the middle, So I woke up with back pain. The A/C was subpar never really cooled down. But for 50 bucks I have stayed in a lot worse.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r190341262-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>190341262</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>weird setup</t>
+  </si>
+  <si>
+    <t>We were traveling through and stayed just overnight. The hotel looked new from the outside, but not sure if it was just remodeled. Bed was not very good and there was very little space to put the luggage if you were staying more than overnight. WiFi cost 2.99 a day. Nice area for coffee and some vending machines in lobby area.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r187309254-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>187309254</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Get Stranded - Seriously!</t>
+  </si>
+  <si>
+    <t>I had the misfortune to encounter Winter Storm Cleon on a trip back from the Texas coast headed north. at 12:30am in the morning, this was the closest open facility to I-35. Ended up staying here for a couple of days till I could travel. This is one of the nicest Motel 6 facilities I've been at. (I generally pay a bit extra and go elsewhere) I was really impressed by the cleanliness and friendliness of the staff. Blankets are a bit thin for 15 degree weather overnight (yes, it really happened) but was able to get an extra blanket to cope and the furnace worked great, although it took a few hours for it to reach my preferred temp of 74 degrees, room was originally 65. I think the energy efficient system they use has something to prevent you from heating the room up to full blast immediately, but it was OK once it hit temp, and aside from my trips to the lobby, I basically had to live here a couple of days. Pretty roomy for them, the room included a table with a booth and a chair that could have worked either as a desk or for two people to eat takeout food. 
+The staff here was just terrific, especially considering the fact we couldn't go anywhere!
+I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the...I had the misfortune to encounter Winter Storm Cleon on a trip back from the Texas coast headed north. at 12:30am in the morning, this was the closest open facility to I-35. Ended up staying here for a couple of days till I could travel. This is one of the nicest Motel 6 facilities I've been at. (I generally pay a bit extra and go elsewhere) I was really impressed by the cleanliness and friendliness of the staff. Blankets are a bit thin for 15 degree weather overnight (yes, it really happened) but was able to get an extra blanket to cope and the furnace worked great, although it took a few hours for it to reach my preferred temp of 74 degrees, room was originally 65. I think the energy efficient system they use has something to prevent you from heating the room up to full blast immediately, but it was OK once it hit temp, and aside from my trips to the lobby, I basically had to live here a couple of days. Pretty roomy for them, the room included a table with a booth and a chair that could have worked either as a desk or for two people to eat takeout food. The staff here was just terrific, especially considering the fact we couldn't go anywhere!I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the other nearby chains, a pretty good value for the money.No amenities aside from fresh coffee and vending machines, but wasn't really expecting that anyway from Motel 6!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the misfortune to encounter Winter Storm Cleon on a trip back from the Texas coast headed north. at 12:30am in the morning, this was the closest open facility to I-35. Ended up staying here for a couple of days till I could travel. This is one of the nicest Motel 6 facilities I've been at. (I generally pay a bit extra and go elsewhere) I was really impressed by the cleanliness and friendliness of the staff. Blankets are a bit thin for 15 degree weather overnight (yes, it really happened) but was able to get an extra blanket to cope and the furnace worked great, although it took a few hours for it to reach my preferred temp of 74 degrees, room was originally 65. I think the energy efficient system they use has something to prevent you from heating the room up to full blast immediately, but it was OK once it hit temp, and aside from my trips to the lobby, I basically had to live here a couple of days. Pretty roomy for them, the room included a table with a booth and a chair that could have worked either as a desk or for two people to eat takeout food. 
+The staff here was just terrific, especially considering the fact we couldn't go anywhere!
+I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the...I had the misfortune to encounter Winter Storm Cleon on a trip back from the Texas coast headed north. at 12:30am in the morning, this was the closest open facility to I-35. Ended up staying here for a couple of days till I could travel. This is one of the nicest Motel 6 facilities I've been at. (I generally pay a bit extra and go elsewhere) I was really impressed by the cleanliness and friendliness of the staff. Blankets are a bit thin for 15 degree weather overnight (yes, it really happened) but was able to get an extra blanket to cope and the furnace worked great, although it took a few hours for it to reach my preferred temp of 74 degrees, room was originally 65. I think the energy efficient system they use has something to prevent you from heating the room up to full blast immediately, but it was OK once it hit temp, and aside from my trips to the lobby, I basically had to live here a couple of days. Pretty roomy for them, the room included a table with a booth and a chair that could have worked either as a desk or for two people to eat takeout food. The staff here was just terrific, especially considering the fact we couldn't go anywhere!I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the other nearby chains, a pretty good value for the money.No amenities aside from fresh coffee and vending machines, but wasn't really expecting that anyway from Motel 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r165362398-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>165362398</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>I Don't Know Why So Many Bad Ratings.</t>
+  </si>
+  <si>
+    <t>My wife and I reserved a room here for the Firestone 550 race weekend and found the place to be great. We are guest in a lot of hotels traveling as much as we do and I was extremely concerned about my stay at a Motel 6. We decided in advance that we were going to man up and keep in mind that we were only there to get sleep between races. We decided that no matter how bad it could be we were not going to let the condition of the hotel dictate our level of fun on this trip.
+We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the...My wife and I reserved a room here for the Firestone 550 race weekend and found the place to be great. We are guest in a lot of hotels traveling as much as we do and I was extremely concerned about my stay at a Motel 6. We decided in advance that we were going to man up and keep in mind that we were only there to get sleep between races. We decided that no matter how bad it could be we were not going to let the condition of the hotel dictate our level of fun on this trip.We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the room a "IKEA" room. I was very pleased though. The room was small but clean and everything turned out to be quite comfortable. The bathroom was also very clean.My favorite thing about this place would have to be the shower. I don't know how they were able to achieve this high performance level of water pressure but I have stayed in hotels around the world that were rated 1 star to 5 star and all in between. From Ritz Carlton to a place in Bombay that I hope to forget someday. But I have never had a better shower with what seemed to be unlimited hot water and enough water pressure to actually make one of those massaging showerheads actually function properly.Overall I say this place was great. Yeah, it was kinda small and it had a IKEAness to its design but it was close to the racetrack and priced lower than anything 15 miles in any direction. We tried to book a room at the sold out Marriott nearby and now I am glad we couldn't get the room there because it would have cost a lot more and we really were out all day and just needed a place to get rest to go out the next morning for more fun. I will stay here again if I am in the area and I hope they keep this property up and continue to provide the basics needed for anyone... safe and clean place to get some rest. Someone complained that the AC didn't work in their room because it was hot when they returned to their room. We noticed that it was hot when we returned to our room also but we also noticed that seconds after walking in the room our AC would turn on and within minutes the room was sufficiently cooled down. I have never been in a room that had something like this but I found it to be more entertaining that something to complain about.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My wife and I reserved a room here for the Firestone 550 race weekend and found the place to be great. We are guest in a lot of hotels traveling as much as we do and I was extremely concerned about my stay at a Motel 6. We decided in advance that we were going to man up and keep in mind that we were only there to get sleep between races. We decided that no matter how bad it could be we were not going to let the condition of the hotel dictate our level of fun on this trip.
+We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the...My wife and I reserved a room here for the Firestone 550 race weekend and found the place to be great. We are guest in a lot of hotels traveling as much as we do and I was extremely concerned about my stay at a Motel 6. We decided in advance that we were going to man up and keep in mind that we were only there to get sleep between races. We decided that no matter how bad it could be we were not going to let the condition of the hotel dictate our level of fun on this trip.We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the room a "IKEA" room. I was very pleased though. The room was small but clean and everything turned out to be quite comfortable. The bathroom was also very clean.My favorite thing about this place would have to be the shower. I don't know how they were able to achieve this high performance level of water pressure but I have stayed in hotels around the world that were rated 1 star to 5 star and all in between. From Ritz Carlton to a place in Bombay that I hope to forget someday. But I have never had a better shower with what seemed to be unlimited hot water and enough water pressure to actually make one of those massaging showerheads actually function properly.Overall I say this place was great. Yeah, it was kinda small and it had a IKEAness to its design but it was close to the racetrack and priced lower than anything 15 miles in any direction. We tried to book a room at the sold out Marriott nearby and now I am glad we couldn't get the room there because it would have cost a lot more and we really were out all day and just needed a place to get rest to go out the next morning for more fun. I will stay here again if I am in the area and I hope they keep this property up and continue to provide the basics needed for anyone... safe and clean place to get some rest. Someone complained that the AC didn't work in their room because it was hot when they returned to their room. We noticed that it was hot when we returned to our room also but we also noticed that seconds after walking in the room our AC would turn on and within minutes the room was sufficiently cooled down. I have never been in a room that had something like this but I found it to be more entertaining that something to complain about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r161206974-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>161206974</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Thank you so much!</t>
+  </si>
+  <si>
+    <t>I would like to express my gratitude for a great stay during a whole month due to work.Very Clean room, with not many ammenities but as my stay was long, i purchased stuff @ WalMart which is pretty close by.Location was perfect as I needed to drive a couple of miles only to get to work every day. Also very well connected to Roanoake, Southlake and Western Center.Very clean laundry room on 2nd floor, vending machines and fresh coffee all day!Truly appreciate being treated with so much candor by Shelly and the whole team. They were always helpful and pretty nice to me day and night.Thank you so much for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I would like to express my gratitude for a great stay during a whole month due to work.Very Clean room, with not many ammenities but as my stay was long, i purchased stuff @ WalMart which is pretty close by.Location was perfect as I needed to drive a couple of miles only to get to work every day. Also very well connected to Roanoake, Southlake and Western Center.Very clean laundry room on 2nd floor, vending machines and fresh coffee all day!Truly appreciate being treated with so much candor by Shelly and the whole team. They were always helpful and pretty nice to me day and night.Thank you so much for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r137571708-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>137571708</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Very disappointed with there managements customer service.</t>
+  </si>
+  <si>
+    <t>Came to rent a  room k to be closer to job. Car had been acting up. 3Rd night here went up to look at laundry room and cost went back to room and key wouldn't work. They tried resetting it but couldn't. Told us we had to Wait for maintenance , they would be in at 8am. Btwn 2 and 3 am is the time we were locked out. Ok I said, but our dog is in there and  her medicine.  Anyways we had hell even getting them to comp us 2 nights for the embarrassment and inconvenient. Then 4 days later we R locked out again the morning we R told that they will give us our money back for one night and that we needed to go ahead and leave. Could not rent us another room and could not give us a reason why we had to leave. Will never go back and recommend no one stay there. I'm dead serious. Very inconsiderate people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Came to rent a  room k to be closer to job. Car had been acting up. 3Rd night here went up to look at laundry room and cost went back to room and key wouldn't work. They tried resetting it but couldn't. Told us we had to Wait for maintenance , they would be in at 8am. Btwn 2 and 3 am is the time we were locked out. Ok I said, but our dog is in there and  her medicine.  Anyways we had hell even getting them to comp us 2 nights for the embarrassment and inconvenient. Then 4 days later we R locked out again the morning we R told that they will give us our money back for one night and that we needed to go ahead and leave. Could not rent us another room and could not give us a reason why we had to leave. Will never go back and recommend no one stay there. I'm dead serious. Very inconsiderate people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r128263687-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>128263687</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>Depends on who you ask...</t>
+  </si>
+  <si>
+    <t>If you are asking me, the hotel is pretty good based on what I am looking for in a hotel.  It must be clean, fairly new and close to the road/good location.  My DH has a different set of criteria.  I gave this hotel an average rating because the bed is not very soft.  If you have to sleep on it for more than 1 night, forget it.  It would be a pain in the neck (literally, maybe!).  I enjoy this motel because of it's convenient location, newness, cleanliness, and the fact that it is easy to get to.  The drawbacks of this motel is that it doesn't have breakfast in the morning and that it doesn't have lots of storage space for your things.  I have always felt safe staying at this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>If you are asking me, the hotel is pretty good based on what I am looking for in a hotel.  It must be clean, fairly new and close to the road/good location.  My DH has a different set of criteria.  I gave this hotel an average rating because the bed is not very soft.  If you have to sleep on it for more than 1 night, forget it.  It would be a pain in the neck (literally, maybe!).  I enjoy this motel because of it's convenient location, newness, cleanliness, and the fact that it is easy to get to.  The drawbacks of this motel is that it doesn't have breakfast in the morning and that it doesn't have lots of storage space for your things.  I have always felt safe staying at this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r124556894-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>124556894</t>
+  </si>
+  <si>
+    <t>02/13/2012</t>
+  </si>
+  <si>
+    <t>A nice change for motel 6</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 days and i have to say that i was quite took with the changes motel 6 has done. The rooms are smaller than the old ones but the things they have done such as the newer style beds, hardwood floors, walk in shower and a great place to store your items. I have to say that even being a motel 6 this was a new change to me being that i was use to a cheep motel for the price and this was still great on price just a few things i didnt like. I had to leave early due to a oncoming snow storm and they wouldn't refund me the amount that i had payed which was bull so there evening customer service was no good, a little noise at night form other rooms not as much as it could of been and when the maid came in to clean she had threw most of my stuff onto the floor which i thought was unprofessional. Overall this is a great place and i would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 days and i have to say that i was quite took with the changes motel 6 has done. The rooms are smaller than the old ones but the things they have done such as the newer style beds, hardwood floors, walk in shower and a great place to store your items. I have to say that even being a motel 6 this was a new change to me being that i was use to a cheep motel for the price and this was still great on price just a few things i didnt like. I had to leave early due to a oncoming snow storm and they wouldn't refund me the amount that i had payed which was bull so there evening customer service was no good, a little noise at night form other rooms not as much as it could of been and when the maid came in to clean she had threw most of my stuff onto the floor which i thought was unprofessional. Overall this is a great place and i would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r115455448-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>115455448</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>Excellent hotel for the price</t>
+  </si>
+  <si>
+    <t>We recently decided to try Motel 6 after learning that they allow dogs at no charge at all of their locations.  I haven't always had a great impression of the chain but they must be improving because this hotel was excellent.  The rooms were clean, the grounds were clean and the pool was great.  Keenan at the front desk was very helpful and nice.  I will definitely stay at this Motel 6 again.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r61223012-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>61223012</t>
+  </si>
+  <si>
+    <t>04/13/2010</t>
+  </si>
+  <si>
+    <t>The Price is Definitely Right</t>
+  </si>
+  <si>
+    <t>Booked this room online while passing through the area.  After tax I think it was $40 for the night.  Had soap, but no shampoo/conditioner, no alarm clock, etc., but for $40 it was perfect.  Fairly new, it had a flat screen TV with HDMI, component, and USB inputs on a panel in front and the room appeared to be decorated by IKEA with modular room components.  Easy access to get on and off I-35W.  The room was very clean.  If you are looking for a super-plush bed, this is not for you. The beds were comfortable, but not the pillow top type.  Passing back through I stayed there again for the same price.  This is perfect value if what you are looking for is a clean room at a decent price.Refrigerator in room, shower with door (not shower curtain), synthetic wood flooring, and a small nook area for eating/laptop use.  In a nutshell, a real bargain for someone passing through looking for a place to bed down!Multi-vending machine area near front desk for everything from shampoo to ice-cream.Near Texas Motor Speedway, so this site most likely will be crazy on race weekends.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Booked this room online while passing through the area.  After tax I think it was $40 for the night.  Had soap, but no shampoo/conditioner, no alarm clock, etc., but for $40 it was perfect.  Fairly new, it had a flat screen TV with HDMI, component, and USB inputs on a panel in front and the room appeared to be decorated by IKEA with modular room components.  Easy access to get on and off I-35W.  The room was very clean.  If you are looking for a super-plush bed, this is not for you. The beds were comfortable, but not the pillow top type.  Passing back through I stayed there again for the same price.  This is perfect value if what you are looking for is a clean room at a decent price.Refrigerator in room, shower with door (not shower curtain), synthetic wood flooring, and a small nook area for eating/laptop use.  In a nutshell, a real bargain for someone passing through looking for a place to bed down!Multi-vending machine area near front desk for everything from shampoo to ice-cream.Near Texas Motor Speedway, so this site most likely will be crazy on race weekends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r59121824-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>59121824</t>
+  </si>
+  <si>
+    <t>03/21/2010</t>
+  </si>
+  <si>
+    <t>Beds uncomfortable</t>
+  </si>
+  <si>
+    <t>The motel is new. Staff was friendly. It is very noisy. We could not get a good nights sleep because the beds were the most uncomfortable beds I have slept on. It is a matress on a wood slab. We all woke up with a backache every morning. The bed is worse than sleeping in a camper bed. I would not stay here again.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r58587010-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>58587010</t>
+  </si>
+  <si>
+    <t>03/14/2010</t>
+  </si>
+  <si>
+    <t>NIce Stay!</t>
+  </si>
+  <si>
+    <t>While in town for a amateur race, I decided to stay here since the hotel was across the Interstate from the track and was newly built.  I found it very easy to find, and the web rate was a great deal.  The service at the front desk was excellent, and I was given a choice of floor as well.  The room was the newer style, modern and contemporary and seemed pretty clean.  The comforter seemed a little dingy for being a newer hotel, but the sheets were clean as was the rest of the room.  It was a little on the small side, but since I was solo this trip it was enough for me.  The flat screen tv also had inputs for portable media or gaming systems as well.  The vending area downstairs was very clean and the free coffee was well stocked.  The wifi was $2.99 per 24 hr period, and was fast and easy to use as well.
+One negative point should be noted.  While this one didnt bother me, it could be an issue for those who are light sleepers or on busy weekends.  This hotel is new but the sound insulation isnt what i thought it would be.  I woke up the last day to maintenence men standing around chatting about something or other.  Door slams can boom through the hallway, and remember you are DIRECTLY across the road from a major motor speedway which...While in town for a amateur race, I decided to stay here since the hotel was across the Interstate from the track and was newly built.  I found it very easy to find, and the web rate was a great deal.  The service at the front desk was excellent, and I was given a choice of floor as well.  The room was the newer style, modern and contemporary and seemed pretty clean.  The comforter seemed a little dingy for being a newer hotel, but the sheets were clean as was the rest of the room.  It was a little on the small side, but since I was solo this trip it was enough for me.  The flat screen tv also had inputs for portable media or gaming systems as well.  The vending area downstairs was very clean and the free coffee was well stocked.  The wifi was $2.99 per 24 hr period, and was fast and easy to use as well.One negative point should be noted.  While this one didnt bother me, it could be an issue for those who are light sleepers or on busy weekends.  This hotel is new but the sound insulation isnt what i thought it would be.  I woke up the last day to maintenence men standing around chatting about something or other.  Door slams can boom through the hallway, and remember you are DIRECTLY across the road from a major motor speedway which has races on almost all days of one class or another.  The sound of cars running on a track may be music to my ears, but not to yours.  In the end, I got a great value for what I paid, and wouldn't mind staying here again.  The rates are good, the rooms are nice and if you know what to expect you will be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>While in town for a amateur race, I decided to stay here since the hotel was across the Interstate from the track and was newly built.  I found it very easy to find, and the web rate was a great deal.  The service at the front desk was excellent, and I was given a choice of floor as well.  The room was the newer style, modern and contemporary and seemed pretty clean.  The comforter seemed a little dingy for being a newer hotel, but the sheets were clean as was the rest of the room.  It was a little on the small side, but since I was solo this trip it was enough for me.  The flat screen tv also had inputs for portable media or gaming systems as well.  The vending area downstairs was very clean and the free coffee was well stocked.  The wifi was $2.99 per 24 hr period, and was fast and easy to use as well.
+One negative point should be noted.  While this one didnt bother me, it could be an issue for those who are light sleepers or on busy weekends.  This hotel is new but the sound insulation isnt what i thought it would be.  I woke up the last day to maintenence men standing around chatting about something or other.  Door slams can boom through the hallway, and remember you are DIRECTLY across the road from a major motor speedway which...While in town for a amateur race, I decided to stay here since the hotel was across the Interstate from the track and was newly built.  I found it very easy to find, and the web rate was a great deal.  The service at the front desk was excellent, and I was given a choice of floor as well.  The room was the newer style, modern and contemporary and seemed pretty clean.  The comforter seemed a little dingy for being a newer hotel, but the sheets were clean as was the rest of the room.  It was a little on the small side, but since I was solo this trip it was enough for me.  The flat screen tv also had inputs for portable media or gaming systems as well.  The vending area downstairs was very clean and the free coffee was well stocked.  The wifi was $2.99 per 24 hr period, and was fast and easy to use as well.One negative point should be noted.  While this one didnt bother me, it could be an issue for those who are light sleepers or on busy weekends.  This hotel is new but the sound insulation isnt what i thought it would be.  I woke up the last day to maintenence men standing around chatting about something or other.  Door slams can boom through the hallway, and remember you are DIRECTLY across the road from a major motor speedway which has races on almost all days of one class or another.  The sound of cars running on a track may be music to my ears, but not to yours.  In the end, I got a great value for what I paid, and wouldn't mind staying here again.  The rates are good, the rooms are nice and if you know what to expect you will be fine.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1142,1512 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_583.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_583.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>agaddy65</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>capcep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r477146347-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>CW I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r465585742-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>monsmtn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r386716289-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Colby W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r365897192-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Mark D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r360047696-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Carrie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r333067429-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>I spent over a week here (Thanksgiving 2015) and the room &amp; motel were very clean. I chose it because it was 5 minutes from my family.The front desk staff were very nice with one exception.  After being there for 5 days, I decided to stay past my initial check out date and had discussed this with other staff but I had not yet paid for the additional night(s).  I was called by the front desk to come down and pay.  I do not move quickly enough apparently and a staff member came up and knocked very hard and said 'management'.  She felt the need to exercise her authority, it was rediculous.  I couldn't very well have planned to sneak out without paying. I despise this type of treatment.  BUT, the place was clean &amp; new so despite this ONE incident which does not take away from the motel itself, I would recommend it! The beds are futon quality so not the most comfortable.More</t>
   </si>
   <si>
+    <t>goboyz22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r325609986-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>We stayed at this Motel 6 during NASCAR weekend  because I could not find any other hotels with an available room I don't normally stay at Motel 6 and I was a little nervous about staying here due to some of the previous reviews however I was pleasantly surprised this is a nice Motel 6 our room was very clean and modern like one person said very IKEA like. The rooms are small but very comfy. The beds are a little hard but I sleep just fine. I stayed at the motel with me and my mother and also felt very safe staying here. I would recommend staying here specially for the price and location to Texas Motor Speedway.More</t>
   </si>
   <si>
+    <t>J D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r320342905-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>Spend more get more. No bfast no free WiFi no exercise but free hair in the shower for you. Uncomfortable beds on platforms. bad free coffee At least there's a tv that worked. Thermostat had to be turned down every hour or the heater kicked on. More</t>
   </si>
   <si>
+    <t>Blazinpistol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r263064373-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -358,6 +388,9 @@
   </si>
   <si>
     <t>I try to get hotels a notch or two above Motel 6 establishments. On this trip, my options were $140am per night, or stay in this Motel 6. I read the reviews about smelling of smoke and horrible beds. I was somewhat dreaded my stay.Upon arrival, I really like how secure the parking area felt. There was a cigarette smell when I entered the lobby. But, it was not overwhelming.The staff here are the most friendly I have ever experienced at any Motel 6. They really make you feel appreciated. I have never seen a Motel 6 with these kind of vending machines. They have drink machines, ice cream machines, candy, chips, cookies, hot and cold sandwiches, breakfasts, deserts, pigs in a blanket, hamburgers, etc etc.. Remarkable!My room was well appointed, and was very comfortable, including the bed. Very modern, very clean and absent of any signs of the smell of smoke. Plenty of receptacles for charging all your electronics. Great light switch locations, and a very efficient, comfortable use of the space. I would stay again without a second thought.I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>Rachel R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r259488666-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -384,6 +417,9 @@
 Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room...Let me start off by saying this hotel was a pleasant surprise.  I stayed here with my young daughter while we were in town briefly.  Little did I know, Texas was about to get snow, which I thought never happened there.  The front desk staff was so helpful in educating me on how the area shuts down with bad weather.  Even things like Wal Mart and Grocery Stores close.  Thanks to her helpful advice, we altered our plans a bit and went out and purchased supplies  just in case we didn't make it out the next day.  The staff continued to be friendly, knowledgeable, and helpful throughout our entire visit.  I think the staff is the number one asset of this hotel.The hotel location is ideal.  It's very close to a gas station so that is convenient for filling up.  It's second from 114, great for commuting.  It's maybe 30 minutes to DFW and 40 minutes to DAL.  We were in town primarily to visit Southlake, which was about 10 minutes away.The front lobby isn't glamorous but it's efficient.  They have vending machines with every kind of drink and food you could want.  They have elevators and an ice machine and laundry services.Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room feel new and cheery.  The bathroom was standard but clean.  There is no view, it's pretty much a parking lot and other hotels.  There was a TV in the room, storage, a mini fridge, two queen beds, and a little sitting area with a table and chairs to do work or eat at.My only problems were the linens smelled like smoke, though our room did not.  And the mini fridge was leaking so they had a rag in there to soak up water which I thought was gross.After my stay, I was emailed a survey.  I took the survey and graded them very honestly and did mention the linens smelling like smoke and the leaky fridge.  Within 24 hours, I had an email from the property manager thanking me for my feedback and letting me know that they were very sorry and were addressing my concerns and that would not happen again.  I felt this was extremely professional and handled very well.For a $54 a night hotel, I was blown away.  I felt very safe, and would stay here again.  I also feel comfortable recommending this place for my friends when they come into town.  My parents however, are use to more 4 star type accomodations, so this is not what I would recommend for people that expect what comes with a 4 star hotel.  But if you aren't into frills, and want a good deal, you can not beat this place!More</t>
   </si>
   <si>
+    <t>Albert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r255777212-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Vcay4us</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r211257325-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Melanie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r190341262-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -439,6 +481,9 @@
   </si>
   <si>
     <t>December 2013</t>
+  </si>
+  <si>
+    <t>Road_Warrior_LV</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r187309254-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -463,6 +508,9 @@
 I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the...I had the misfortune to encounter Winter Storm Cleon on a trip back from the Texas coast headed north. at 12:30am in the morning, this was the closest open facility to I-35. Ended up staying here for a couple of days till I could travel. This is one of the nicest Motel 6 facilities I've been at. (I generally pay a bit extra and go elsewhere) I was really impressed by the cleanliness and friendliness of the staff. Blankets are a bit thin for 15 degree weather overnight (yes, it really happened) but was able to get an extra blanket to cope and the furnace worked great, although it took a few hours for it to reach my preferred temp of 74 degrees, room was originally 65. I think the energy efficient system they use has something to prevent you from heating the room up to full blast immediately, but it was OK once it hit temp, and aside from my trips to the lobby, I basically had to live here a couple of days. Pretty roomy for them, the room included a table with a booth and a chair that could have worked either as a desk or for two people to eat takeout food. The staff here was just terrific, especially considering the fact we couldn't go anywhere!I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the other nearby chains, a pretty good value for the money.No amenities aside from fresh coffee and vending machines, but wasn't really expecting that anyway from Motel 6!More</t>
   </si>
   <si>
+    <t>mgenre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r165362398-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
 We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the...My wife and I reserved a room here for the Firestone 550 race weekend and found the place to be great. We are guest in a lot of hotels traveling as much as we do and I was extremely concerned about my stay at a Motel 6. We decided in advance that we were going to man up and keep in mind that we were only there to get sleep between races. We decided that no matter how bad it could be we were not going to let the condition of the hotel dictate our level of fun on this trip.We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the room a "IKEA" room. I was very pleased though. The room was small but clean and everything turned out to be quite comfortable. The bathroom was also very clean.My favorite thing about this place would have to be the shower. I don't know how they were able to achieve this high performance level of water pressure but I have stayed in hotels around the world that were rated 1 star to 5 star and all in between. From Ritz Carlton to a place in Bombay that I hope to forget someday. But I have never had a better shower with what seemed to be unlimited hot water and enough water pressure to actually make one of those massaging showerheads actually function properly.Overall I say this place was great. Yeah, it was kinda small and it had a IKEAness to its design but it was close to the racetrack and priced lower than anything 15 miles in any direction. We tried to book a room at the sold out Marriott nearby and now I am glad we couldn't get the room there because it would have cost a lot more and we really were out all day and just needed a place to get rest to go out the next morning for more fun. I will stay here again if I am in the area and I hope they keep this property up and continue to provide the basics needed for anyone... safe and clean place to get some rest. Someone complained that the AC didn't work in their room because it was hot when they returned to their room. We noticed that it was hot when we returned to our room also but we also noticed that seconds after walking in the room our AC would turn on and within minutes the room was sufficiently cooled down. I have never been in a room that had something like this but I found it to be more entertaining that something to complain about.More</t>
   </si>
   <si>
+    <t>Laura74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r161206974-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>I would like to express my gratitude for a great stay during a whole month due to work.Very Clean room, with not many ammenities but as my stay was long, i purchased stuff @ WalMart which is pretty close by.Location was perfect as I needed to drive a couple of miles only to get to work every day. Also very well connected to Roanoake, Southlake and Western Center.Very clean laundry room on 2nd floor, vending machines and fresh coffee all day!Truly appreciate being treated with so much candor by Shelly and the whole team. They were always helpful and pretty nice to me day and night.Thank you so much for a great stay!More</t>
   </si>
   <si>
+    <t>Tracihix52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r137571708-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>Came to rent a  room k to be closer to job. Car had been acting up. 3Rd night here went up to look at laundry room and cost went back to room and key wouldn't work. They tried resetting it but couldn't. Told us we had to Wait for maintenance , they would be in at 8am. Btwn 2 and 3 am is the time we were locked out. Ok I said, but our dog is in there and  her medicine.  Anyways we had hell even getting them to comp us 2 nights for the embarrassment and inconvenient. Then 4 days later we R locked out again the morning we R told that they will give us our money back for one night and that we needed to go ahead and leave. Could not rent us another room and could not give us a reason why we had to leave. Will never go back and recommend no one stay there. I'm dead serious. Very inconsiderate people.More</t>
   </si>
   <si>
+    <t>Karyn_D680</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r128263687-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -546,6 +603,9 @@
     <t>If you are asking me, the hotel is pretty good based on what I am looking for in a hotel.  It must be clean, fairly new and close to the road/good location.  My DH has a different set of criteria.  I gave this hotel an average rating because the bed is not very soft.  If you have to sleep on it for more than 1 night, forget it.  It would be a pain in the neck (literally, maybe!).  I enjoy this motel because of it's convenient location, newness, cleanliness, and the fact that it is easy to get to.  The drawbacks of this motel is that it doesn't have breakfast in the morning and that it doesn't have lots of storage space for your things.  I have always felt safe staying at this motel.More</t>
   </si>
   <si>
+    <t>cwa8807</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r124556894-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -567,6 +627,9 @@
     <t>I stayed at this hotel for 2 days and i have to say that i was quite took with the changes motel 6 has done. The rooms are smaller than the old ones but the things they have done such as the newer style beds, hardwood floors, walk in shower and a great place to store your items. I have to say that even being a motel 6 this was a new change to me being that i was use to a cheep motel for the price and this was still great on price just a few things i didnt like. I had to leave early due to a oncoming snow storm and they wouldn't refund me the amount that i had payed which was bull so there evening customer service was no good, a little noise at night form other rooms not as much as it could of been and when the maid came in to clean she had threw most of my stuff onto the floor which i thought was unprofessional. Overall this is a great place and i would stay again.More</t>
   </si>
   <si>
+    <t>MateoVerito</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r115455448-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>Japheaux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r61223012-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -606,6 +672,9 @@
     <t>Booked this room online while passing through the area.  After tax I think it was $40 for the night.  Had soap, but no shampoo/conditioner, no alarm clock, etc., but for $40 it was perfect.  Fairly new, it had a flat screen TV with HDMI, component, and USB inputs on a panel in front and the room appeared to be decorated by IKEA with modular room components.  Easy access to get on and off I-35W.  The room was very clean.  If you are looking for a super-plush bed, this is not for you. The beds were comfortable, but not the pillow top type.  Passing back through I stayed there again for the same price.  This is perfect value if what you are looking for is a clean room at a decent price.Refrigerator in room, shower with door (not shower curtain), synthetic wood flooring, and a small nook area for eating/laptop use.  In a nutshell, a real bargain for someone passing through looking for a place to bed down!Multi-vending machine area near front desk for everything from shampoo to ice-cream.Near Texas Motor Speedway, so this site most likely will be crazy on race weekends.More</t>
   </si>
   <si>
+    <t>gnetch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r59121824-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -622,6 +691,9 @@
   </si>
   <si>
     <t>March 2010</t>
+  </si>
+  <si>
+    <t>bxb4784f</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r58587010-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -1146,43 +1218,47 @@
       <c r="A2" t="n">
         <v>59027</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169448</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1196,50 +1272,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59027</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1259,50 +1339,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59027</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1322,50 +1406,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59027</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1385,50 +1473,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59027</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169452</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1448,50 +1540,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59027</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>21068</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1505,50 +1601,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59027</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>20567</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1566,50 +1666,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59027</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1623,50 +1727,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59027</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>13557</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1678,56 +1786,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59027</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169454</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1741,50 +1853,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59027</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>32323</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1802,50 +1918,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59027</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>86956</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1859,50 +1979,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59027</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169455</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1926,50 +2050,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59027</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>3489</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1993,50 +2121,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59027</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169456</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2060,50 +2192,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59027</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169457</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2127,50 +2263,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59027</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169458</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2184,41 +2324,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59027</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169459</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -2247,50 +2391,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59027</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>42347</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2314,50 +2462,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59027</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169460</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2381,50 +2533,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59027</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169461</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2444,50 +2600,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59027</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169462</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2511,50 +2671,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59027</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169463</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2578,50 +2742,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59027</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>40864</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2645,7 +2813,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_583.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_583.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>agaddy65</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r528672688-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>56555</t>
+  </si>
+  <si>
+    <t>1597706</t>
+  </si>
+  <si>
+    <t>528672688</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Good Guys show</t>
+  </si>
+  <si>
+    <t>We are celebrating our anniversary and went to the Good Guys show at Texas Motor Speedway. I knew room rates would be higher than usual, but $130 with tax for this tiny room was ridiculous!! They have a Senior discount for over 60, not 59. They don't have free Wi-Fi. If you are going to charge double the amount, you need to step it up, Motel 6. The room was close to the track so that was good. There is a QuikTrip convenient store close by. It took me forever to check in, because no one was at the front desk. I had to flag down a housekeeper to find someone. The room is tiny, no fridge or microwave. Just not really impressed. The reason for 3 stars was the ease of getting to the track and surrounding access. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We are celebrating our anniversary and went to the Good Guys show at Texas Motor Speedway. I knew room rates would be higher than usual, but $130 with tax for this tiny room was ridiculous!! They have a Senior discount for over 60, not 59. They don't have free Wi-Fi. If you are going to charge double the amount, you need to step it up, Motel 6. The room was close to the track so that was good. There is a QuikTrip convenient store close by. It took me forever to check in, because no one was at the front desk. I had to flag down a housekeeper to find someone. The room is tiny, no fridge or microwave. Just not really impressed. The reason for 3 stars was the ease of getting to the track and surrounding access. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r489095116-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>489095116</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: location, cleanliness, lots of outlets, stand up shower with door, super cold air conditioning, priceCons: no breakfast, no hair dryer, no iron/board, no toiletries (just one tiny bar soap), uncomfortable beds, lots of noise from guests and their dogs, no trash can in the bathroom (?), one handtowel and one washcloth for a family of 4, no clock, no extra pillows (asked at front desk), vending machines are overpriced. Front desk staff were fine. Not exceptionally friendly, but answered questions. We will not be staying again. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r478529869-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
-    <t>56555</t>
-  </si>
-  <si>
-    <t>1597706</t>
-  </si>
-  <si>
     <t>478529869</t>
   </si>
   <si>
@@ -177,12 +219,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>capcep</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r477146347-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -201,9 +237,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>CW I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r465585742-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -222,7 +255,43 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>monsmtn</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r455217207-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>455217207</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>It's Motel 6</t>
+  </si>
+  <si>
+    <t>I wound up spending two nights here, after discovering every place else was too far or too expensive. It's pretty much a typical Motel 6...beds, bathroom, wifi, etc. Overall it's pretty decent, but the only Wi-Fi they had available was the slow service, for $2.95....basically dial- up speed.  Luckily there's a Quick Trip within walking distance, so cheap beer is close by. I'll probably stay there again the next time I'm in the area.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r408890411-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>408890411</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Good value for the price</t>
+  </si>
+  <si>
+    <t>This honestly is a good value for the price.  It's nothing fancy--but it works.  Honestly, while I was staying there I was wishing for some nicer accommodations, but after I checked out, my wallet was glad that I saved the money.  The hotel is quiet, the staff are really nice and the WiFi is really affordable.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r386716289-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -243,12 +312,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Colby W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r365897192-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -267,9 +330,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Mark D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r360047696-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -288,10 +348,40 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Carrie C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r359813027-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>359813027</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Very helpful</t>
+  </si>
+  <si>
+    <t>The front desk was very helpful and nice when I was not sure by noon if I was going to need the second night I had booked.They refunded my credit card for the second stay and let me know they were sure they would be able to find me a room if I did need that second night after all.Also very clean.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r334782620-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>334782620</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Economical, basic, clean</t>
+  </si>
+  <si>
+    <t>You can see why Motel 6 is less expensive. The room is very basic. No amenities, no ironing board, no mini fridge. The room was clean and the bed was reasonably comfortable. I might stay here again if I just needed an overnight place to sleep, but for more than one day or on a vacation, I'd choose to upgrade to the next level of hotels. Not bad, but super basic.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r333067429-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -315,9 +405,6 @@
     <t>I spent over a week here (Thanksgiving 2015) and the room &amp; motel were very clean. I chose it because it was 5 minutes from my family.The front desk staff were very nice with one exception.  After being there for 5 days, I decided to stay past my initial check out date and had discussed this with other staff but I had not yet paid for the additional night(s).  I was called by the front desk to come down and pay.  I do not move quickly enough apparently and a staff member came up and knocked very hard and said 'management'.  She felt the need to exercise her authority, it was rediculous.  I couldn't very well have planned to sneak out without paying. I despise this type of treatment.  BUT, the place was clean &amp; new so despite this ONE incident which does not take away from the motel itself, I would recommend it! The beds are futon quality so not the most comfortable.More</t>
   </si>
   <si>
-    <t>goboyz22</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r325609986-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -336,9 +423,6 @@
     <t>We stayed at this Motel 6 during NASCAR weekend  because I could not find any other hotels with an available room I don't normally stay at Motel 6 and I was a little nervous about staying here due to some of the previous reviews however I was pleasantly surprised this is a nice Motel 6 our room was very clean and modern like one person said very IKEA like. The rooms are small but very comfy. The beds are a little hard but I sleep just fine. I stayed at the motel with me and my mother and also felt very safe staying here. I would recommend staying here specially for the price and location to Texas Motor Speedway.More</t>
   </si>
   <si>
-    <t>J D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r320342905-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -366,7 +450,55 @@
     <t>Spend more get more. No bfast no free WiFi no exercise but free hair in the shower for you. Uncomfortable beds on platforms. bad free coffee At least there's a tv that worked. Thermostat had to be turned down every hour or the heater kicked on. More</t>
   </si>
   <si>
-    <t>Blazinpistol</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r316509098-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>316509098</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>No frills = no rest</t>
+  </si>
+  <si>
+    <t>Clean modern and convenient to the speedway. That's the only good thing about it. The building was constructed so light that you will hear EVERYTHING. Worst part is the cheap hard mattress sitting on a plywood box.  Wrecked our backs and basically got no sleep at all.  Next visit I'll pay extra for better hotels next doorMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Ft Worth Northlake - Speedway, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Clean modern and convenient to the speedway. That's the only good thing about it. The building was constructed so light that you will hear EVERYTHING. Worst part is the cheap hard mattress sitting on a plywood box.  Wrecked our backs and basically got no sleep at all.  Next visit I'll pay extra for better hotels next doorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r302734589-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>302734589</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Hotel nightmare</t>
+  </si>
+  <si>
+    <t>This motel advertising 49 dollars a night . To my surprise it costed 70 dollars a night.wi- fi was extra,no breakfast, room was as big as a jail cell and the beds,well I only wanted one was hard as a rock and smelled,well you can imagine.. There is no bathroom on the first floor or lobby . you will haft to go back to your room to use.The A.C. blows rite on ya ,can't adjust around.Then the workers don't speak English........  Me and my wife called before coming,they qouted us one price and then we showed up tired and hot ,they charged a different price... I will never recommend these people to my family nor my truck driver buddies!!¡!!¡!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Ft Worth Northlake - Speedway, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>This motel advertising 49 dollars a night . To my surprise it costed 70 dollars a night.wi- fi was extra,no breakfast, room was as big as a jail cell and the beds,well I only wanted one was hard as a rock and smelled,well you can imagine.. There is no bathroom on the first floor or lobby . you will haft to go back to your room to use.The A.C. blows rite on ya ,can't adjust around.Then the workers don't speak English........  Me and my wife called before coming,they qouted us one price and then we showed up tired and hot ,they charged a different price... I will never recommend these people to my family nor my truck driver buddies!!¡!!¡!!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r263064373-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -388,9 +520,6 @@
   </si>
   <si>
     <t>I try to get hotels a notch or two above Motel 6 establishments. On this trip, my options were $140am per night, or stay in this Motel 6. I read the reviews about smelling of smoke and horrible beds. I was somewhat dreaded my stay.Upon arrival, I really like how secure the parking area felt. There was a cigarette smell when I entered the lobby. But, it was not overwhelming.The staff here are the most friendly I have ever experienced at any Motel 6. They really make you feel appreciated. I have never seen a Motel 6 with these kind of vending machines. They have drink machines, ice cream machines, candy, chips, cookies, hot and cold sandwiches, breakfasts, deserts, pigs in a blanket, hamburgers, etc etc.. Remarkable!My room was well appointed, and was very comfortable, including the bed. Very modern, very clean and absent of any signs of the smell of smoke. Plenty of receptacles for charging all your electronics. Great light switch locations, and a very efficient, comfortable use of the space. I would stay again without a second thought.I would recommend this hotel to anyone.More</t>
-  </si>
-  <si>
-    <t>Rachel R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r259488666-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -417,9 +546,6 @@
 Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room...Let me start off by saying this hotel was a pleasant surprise.  I stayed here with my young daughter while we were in town briefly.  Little did I know, Texas was about to get snow, which I thought never happened there.  The front desk staff was so helpful in educating me on how the area shuts down with bad weather.  Even things like Wal Mart and Grocery Stores close.  Thanks to her helpful advice, we altered our plans a bit and went out and purchased supplies  just in case we didn't make it out the next day.  The staff continued to be friendly, knowledgeable, and helpful throughout our entire visit.  I think the staff is the number one asset of this hotel.The hotel location is ideal.  It's very close to a gas station so that is convenient for filling up.  It's second from 114, great for commuting.  It's maybe 30 minutes to DFW and 40 minutes to DAL.  We were in town primarily to visit Southlake, which was about 10 minutes away.The front lobby isn't glamorous but it's efficient.  They have vending machines with every kind of drink and food you could want.  They have elevators and an ice machine and laundry services.Our room was very nice.  I was surprised for the rate of $54 a night that it would be this nice.  It's modern with a light bamboo like floor, orange accents which make the room feel new and cheery.  The bathroom was standard but clean.  There is no view, it's pretty much a parking lot and other hotels.  There was a TV in the room, storage, a mini fridge, two queen beds, and a little sitting area with a table and chairs to do work or eat at.My only problems were the linens smelled like smoke, though our room did not.  And the mini fridge was leaking so they had a rag in there to soak up water which I thought was gross.After my stay, I was emailed a survey.  I took the survey and graded them very honestly and did mention the linens smelling like smoke and the leaky fridge.  Within 24 hours, I had an email from the property manager thanking me for my feedback and letting me know that they were very sorry and were addressing my concerns and that would not happen again.  I felt this was extremely professional and handled very well.For a $54 a night hotel, I was blown away.  I felt very safe, and would stay here again.  I also feel comfortable recommending this place for my friends when they come into town.  My parents however, are use to more 4 star type accomodations, so this is not what I would recommend for people that expect what comes with a 4 star hotel.  But if you aren't into frills, and want a good deal, you can not beat this place!More</t>
   </si>
   <si>
-    <t>Albert G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r255777212-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -441,7 +567,40 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Vcay4us</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r243545207-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>243545207</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Absolutely beautiful clean and efficient but SMOKEY</t>
+  </si>
+  <si>
+    <t>This is a great room if you dont mind the person next door or same floor smoking. The room is great and of great value awesome price. BUT I should have asked and didnt about smoking. Every floor has smoking and if you have a problem with smoking this is not your hotel to stay at. The room is great and clean and minimal it is perfect especially for the price BUT I did not realize that at one in the morning I would be woken by the smell of cigarette smoke. I call to ask about it and they said they have smoking on every floor. If you are a smoker this is perfect because it is clean and nice but if you are not this is not the place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This is a great room if you dont mind the person next door or same floor smoking. The room is great and of great value awesome price. BUT I should have asked and didnt about smoking. Every floor has smoking and if you have a problem with smoking this is not your hotel to stay at. The room is great and clean and minimal it is perfect especially for the price BUT I did not realize that at one in the morning I would be woken by the smell of cigarette smoke. I call to ask about it and they said they have smoking on every floor. If you are a smoker this is perfect because it is clean and nice but if you are not this is not the place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r224303923-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>224303923</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Better than some, worse than others!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just stayed one Sunday night. Read previous reviews about the rooms being very "IKEA", couldn't agree more! Not a lot of room. Outlets for charging all our electronics were well placed! But it was CLEAN and that's really the most important thing on a quicker stay. Pool was really nice! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r211257325-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -462,9 +621,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Melanie T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r190341262-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -481,9 +637,6 @@
   </si>
   <si>
     <t>December 2013</t>
-  </si>
-  <si>
-    <t>Road_Warrior_LV</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r187309254-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -508,7 +661,47 @@
 I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the...I had the misfortune to encounter Winter Storm Cleon on a trip back from the Texas coast headed north. at 12:30am in the morning, this was the closest open facility to I-35. Ended up staying here for a couple of days till I could travel. This is one of the nicest Motel 6 facilities I've been at. (I generally pay a bit extra and go elsewhere) I was really impressed by the cleanliness and friendliness of the staff. Blankets are a bit thin for 15 degree weather overnight (yes, it really happened) but was able to get an extra blanket to cope and the furnace worked great, although it took a few hours for it to reach my preferred temp of 74 degrees, room was originally 65. I think the energy efficient system they use has something to prevent you from heating the room up to full blast immediately, but it was OK once it hit temp, and aside from my trips to the lobby, I basically had to live here a couple of days. Pretty roomy for them, the room included a table with a booth and a chair that could have worked either as a desk or for two people to eat takeout food. The staff here was just terrific, especially considering the fact we couldn't go anywhere!I travel this interstate corridor several times per year, so I'll definitely be back. It was $30 cheaper than the other nearby chains, a pretty good value for the money.No amenities aside from fresh coffee and vending machines, but wasn't really expecting that anyway from Motel 6!More</t>
   </si>
   <si>
-    <t>mgenre</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r184348819-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>184348819</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Quirky motel</t>
+  </si>
+  <si>
+    <t>After reading the mixed reviews on here I wasn't sure what to expect. Overall our stay there was pretty good. The staff were all very friendly and helpful. The rooms were quite small and had a strange setup. But although small they had a table with a fridge so that made our life with a toddler easy. The beds weren't the most comfortable but not terrible. The motel is literally a minute from tbe racetrack and that made it perfect for us. It was a quiet weekend with hardly any guests, so it was very quiet. I could see it being very noisy when it is full of NASCAR fans though. I wouk d stay again at the price I paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading the mixed reviews on here I wasn't sure what to expect. Overall our stay there was pretty good. The staff were all very friendly and helpful. The rooms were quite small and had a strange setup. But although small they had a table with a fridge so that made our life with a toddler easy. The beds weren't the most comfortable but not terrible. The motel is literally a minute from tbe racetrack and that made it perfect for us. It was a quiet weekend with hardly any guests, so it was very quiet. I could see it being very noisy when it is full of NASCAR fans though. I wouk d stay again at the price I paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r179360268-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>179360268</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>ZERO water pressure :-(</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night in late September.  There were no races going on this weekend, so the place was not full.  It was very quiet, and I hardly heard any of the other guests.  We stayed on the 3rd floor, away from the elevator, so that was probably why.  
+The room, though sparsely furnished, was clean.  I like the "wood" floors, and "leather" upholstery.  This contributes to the clean feeling.  The beds were not uncomfortable, but not plush.  I felt a little like I was in a train, just because the room was pretty small, and a little RVish.  That being said, if you just need a place to sleep, this place is not bad.  
+I just have two complaints, and this kind of ruined it for me.  Every time I left or came back to my room, I smelled smoke in the hall.  To me, they should do a better job of segregating the smoking rooms.  I never smelled it in my room, so that was good.  The other drawback was the lack of water pressure.  I don't mean it was low, I mean it was terrible.  I finally pointed the shower head straight down in hopes that gravity would help.  I told the front desk about it at check out, but they attribruted it to the hotel being a "green" hotel.  In all fairness, after I completed the guest survey sent by the hotel,...We stayed in this hotel for one night in late September.  There were no races going on this weekend, so the place was not full.  It was very quiet, and I hardly heard any of the other guests.  We stayed on the 3rd floor, away from the elevator, so that was probably why.  The room, though sparsely furnished, was clean.  I like the "wood" floors, and "leather" upholstery.  This contributes to the clean feeling.  The beds were not uncomfortable, but not plush.  I felt a little like I was in a train, just because the room was pretty small, and a little RVish.  That being said, if you just need a place to sleep, this place is not bad.  I just have two complaints, and this kind of ruined it for me.  Every time I left or came back to my room, I smelled smoke in the hall.  To me, they should do a better job of segregating the smoking rooms.  I never smelled it in my room, so that was good.  The other drawback was the lack of water pressure.  I don't mean it was low, I mean it was terrible.  I finally pointed the shower head straight down in hopes that gravity would help.  I told the front desk about it at check out, but they attribruted it to the hotel being a "green" hotel.  In all fairness, after I completed the guest survey sent by the hotel, I was immediately contacted and told that the situation was rectified, and it was not because the hotel was "green."  This is the cheapest hotel in the area.  Had I not experienced the two issues above, I probably would have given a fourth star, based on value.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for one night in late September.  There were no races going on this weekend, so the place was not full.  It was very quiet, and I hardly heard any of the other guests.  We stayed on the 3rd floor, away from the elevator, so that was probably why.  
+The room, though sparsely furnished, was clean.  I like the "wood" floors, and "leather" upholstery.  This contributes to the clean feeling.  The beds were not uncomfortable, but not plush.  I felt a little like I was in a train, just because the room was pretty small, and a little RVish.  That being said, if you just need a place to sleep, this place is not bad.  
+I just have two complaints, and this kind of ruined it for me.  Every time I left or came back to my room, I smelled smoke in the hall.  To me, they should do a better job of segregating the smoking rooms.  I never smelled it in my room, so that was good.  The other drawback was the lack of water pressure.  I don't mean it was low, I mean it was terrible.  I finally pointed the shower head straight down in hopes that gravity would help.  I told the front desk about it at check out, but they attribruted it to the hotel being a "green" hotel.  In all fairness, after I completed the guest survey sent by the hotel,...We stayed in this hotel for one night in late September.  There were no races going on this weekend, so the place was not full.  It was very quiet, and I hardly heard any of the other guests.  We stayed on the 3rd floor, away from the elevator, so that was probably why.  The room, though sparsely furnished, was clean.  I like the "wood" floors, and "leather" upholstery.  This contributes to the clean feeling.  The beds were not uncomfortable, but not plush.  I felt a little like I was in a train, just because the room was pretty small, and a little RVish.  That being said, if you just need a place to sleep, this place is not bad.  I just have two complaints, and this kind of ruined it for me.  Every time I left or came back to my room, I smelled smoke in the hall.  To me, they should do a better job of segregating the smoking rooms.  I never smelled it in my room, so that was good.  The other drawback was the lack of water pressure.  I don't mean it was low, I mean it was terrible.  I finally pointed the shower head straight down in hopes that gravity would help.  I told the front desk about it at check out, but they attribruted it to the hotel being a "green" hotel.  In all fairness, after I completed the guest survey sent by the hotel, I was immediately contacted and told that the situation was rectified, and it was not because the hotel was "green."  This is the cheapest hotel in the area.  Had I not experienced the two issues above, I probably would have given a fourth star, based on value.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r165362398-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -534,9 +727,6 @@
 We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the...My wife and I reserved a room here for the Firestone 550 race weekend and found the place to be great. We are guest in a lot of hotels traveling as much as we do and I was extremely concerned about my stay at a Motel 6. We decided in advance that we were going to man up and keep in mind that we were only there to get sleep between races. We decided that no matter how bad it could be we were not going to let the condition of the hotel dictate our level of fun on this trip.We arrived and we were both pleased with the appearance of the hotel but I would not be fooled into thinking the whole place would be as nice as the outer shell. My wife went inside to check us in because I fear what waited for me inside didn't want to go in till I had to. She came out and said "The lobby looks fine". Still being the skeptic I reserved my smiles for after a full inspection with my own eyes. We loaded the luggage cart and made our way to the room. As my wife said the lobby did appear to be nice. It was well lit and clean and the desk clerk seemed to be hospitable. We opened the door to our room and I laughed and said "I see why one reviewer called the room a "IKEA" room. I was very pleased though. The room was small but clean and everything turned out to be quite comfortable. The bathroom was also very clean.My favorite thing about this place would have to be the shower. I don't know how they were able to achieve this high performance level of water pressure but I have stayed in hotels around the world that were rated 1 star to 5 star and all in between. From Ritz Carlton to a place in Bombay that I hope to forget someday. But I have never had a better shower with what seemed to be unlimited hot water and enough water pressure to actually make one of those massaging showerheads actually function properly.Overall I say this place was great. Yeah, it was kinda small and it had a IKEAness to its design but it was close to the racetrack and priced lower than anything 15 miles in any direction. We tried to book a room at the sold out Marriott nearby and now I am glad we couldn't get the room there because it would have cost a lot more and we really were out all day and just needed a place to get rest to go out the next morning for more fun. I will stay here again if I am in the area and I hope they keep this property up and continue to provide the basics needed for anyone... safe and clean place to get some rest. Someone complained that the AC didn't work in their room because it was hot when they returned to their room. We noticed that it was hot when we returned to our room also but we also noticed that seconds after walking in the room our AC would turn on and within minutes the room was sufficiently cooled down. I have never been in a room that had something like this but I found it to be more entertaining that something to complain about.More</t>
   </si>
   <si>
-    <t>Laura74</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r161206974-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -558,9 +748,6 @@
     <t>I would like to express my gratitude for a great stay during a whole month due to work.Very Clean room, with not many ammenities but as my stay was long, i purchased stuff @ WalMart which is pretty close by.Location was perfect as I needed to drive a couple of miles only to get to work every day. Also very well connected to Roanoake, Southlake and Western Center.Very clean laundry room on 2nd floor, vending machines and fresh coffee all day!Truly appreciate being treated with so much candor by Shelly and the whole team. They were always helpful and pretty nice to me day and night.Thank you so much for a great stay!More</t>
   </si>
   <si>
-    <t>Tracihix52</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r137571708-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -579,7 +766,37 @@
     <t>Came to rent a  room k to be closer to job. Car had been acting up. 3Rd night here went up to look at laundry room and cost went back to room and key wouldn't work. They tried resetting it but couldn't. Told us we had to Wait for maintenance , they would be in at 8am. Btwn 2 and 3 am is the time we were locked out. Ok I said, but our dog is in there and  her medicine.  Anyways we had hell even getting them to comp us 2 nights for the embarrassment and inconvenient. Then 4 days later we R locked out again the morning we R told that they will give us our money back for one night and that we needed to go ahead and leave. Could not rent us another room and could not give us a reason why we had to leave. Will never go back and recommend no one stay there. I'm dead serious. Very inconsiderate people.More</t>
   </si>
   <si>
-    <t>Karyn_D680</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r134549355-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>134549355</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Overrated</t>
+  </si>
+  <si>
+    <t>Let me start with something good. It was recently remodeled. Now, on with it. This is in the top 5 on my list of hotels never to stay in again. I travel the country working and had the unpleasant experience of staying here for two weeks. It is the most expensive motel 6 I have ever stayed. Your average price listed is $37 a night, wrong. If you stay by the week it comes out something close to that, but if you're staying one or two nights, be prepared to pay more. Especially if more than one person is staying.  The layout of the rooms interior is the worst I've seen. I stayed in a double. The tv was permanently mounted flat against the wall and shifted all the way to the door side of the room. You could only watch it from one bed. Although the double beside us had the tv mounted in between the beds and it was viewable from both beds. If you prop yourself up in the bed to read a book or watch tv, your mattress will slide off in the floor. There was a mini fridge in the room but, if you need to warm something up to eat or drink, be prepared to walk down to the lobby where the only two microwaves in the motel are located. And if you stay in a single, you will not have a mini fridge...Let me start with something good. It was recently remodeled. Now, on with it. This is in the top 5 on my list of hotels never to stay in again. I travel the country working and had the unpleasant experience of staying here for two weeks. It is the most expensive motel 6 I have ever stayed. Your average price listed is $37 a night, wrong. If you stay by the week it comes out something close to that, but if you're staying one or two nights, be prepared to pay more. Especially if more than one person is staying.  The layout of the rooms interior is the worst I've seen. I stayed in a double. The tv was permanently mounted flat against the wall and shifted all the way to the door side of the room. You could only watch it from one bed. Although the double beside us had the tv mounted in between the beds and it was viewable from both beds. If you prop yourself up in the bed to read a book or watch tv, your mattress will slide off in the floor. There was a mini fridge in the room but, if you need to warm something up to eat or drink, be prepared to walk down to the lobby where the only two microwaves in the motel are located. And if you stay in a single, you will not have a mini fridge either. I stayed in a single also when my gf came to see me. The elevator is located on the far west end of the motel, so if you're unlucky enough to have a room on the east end, be ready to walk. During my two week stay my room was cleaned and sheets replaced one time. It became an every other day occurrence to have to go to the front desk and retrieve towels. On two separate occasions we had so many towels and so much trash that we had to push it into the hall and force housekeeping to do their job because simply asking them was not working. It claims to be green but this motel 6 had more coke, candy, and ice cream machines in the lobby than any other I have seen. If you're wanting a continental breakfast in the morning, don't expect anything other than coffee, if it's made. The Wi-Fi access is limited. If you're planning on trying to hook up a game console, don't.  Their system will not support it and their techs have limited knowledge of their own system.  Also be ready to pay daily for you're Wi-Fi access. The service at the front desk was speratic.  Depending on who was there. Most of the clerks came off as not wanting to do anything other than accept your hard earned money with a frown on their face. I hope that whoever reads this will understand that this is a review of my experience and does not mean that their service will be as bad. Although the motel layout will be the same. This is a real review from boogieman7878@gmail.com that stayed in room 329.                     Thanks, Chris R.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start with something good. It was recently remodeled. Now, on with it. This is in the top 5 on my list of hotels never to stay in again. I travel the country working and had the unpleasant experience of staying here for two weeks. It is the most expensive motel 6 I have ever stayed. Your average price listed is $37 a night, wrong. If you stay by the week it comes out something close to that, but if you're staying one or two nights, be prepared to pay more. Especially if more than one person is staying.  The layout of the rooms interior is the worst I've seen. I stayed in a double. The tv was permanently mounted flat against the wall and shifted all the way to the door side of the room. You could only watch it from one bed. Although the double beside us had the tv mounted in between the beds and it was viewable from both beds. If you prop yourself up in the bed to read a book or watch tv, your mattress will slide off in the floor. There was a mini fridge in the room but, if you need to warm something up to eat or drink, be prepared to walk down to the lobby where the only two microwaves in the motel are located. And if you stay in a single, you will not have a mini fridge...Let me start with something good. It was recently remodeled. Now, on with it. This is in the top 5 on my list of hotels never to stay in again. I travel the country working and had the unpleasant experience of staying here for two weeks. It is the most expensive motel 6 I have ever stayed. Your average price listed is $37 a night, wrong. If you stay by the week it comes out something close to that, but if you're staying one or two nights, be prepared to pay more. Especially if more than one person is staying.  The layout of the rooms interior is the worst I've seen. I stayed in a double. The tv was permanently mounted flat against the wall and shifted all the way to the door side of the room. You could only watch it from one bed. Although the double beside us had the tv mounted in between the beds and it was viewable from both beds. If you prop yourself up in the bed to read a book or watch tv, your mattress will slide off in the floor. There was a mini fridge in the room but, if you need to warm something up to eat or drink, be prepared to walk down to the lobby where the only two microwaves in the motel are located. And if you stay in a single, you will not have a mini fridge either. I stayed in a single also when my gf came to see me. The elevator is located on the far west end of the motel, so if you're unlucky enough to have a room on the east end, be ready to walk. During my two week stay my room was cleaned and sheets replaced one time. It became an every other day occurrence to have to go to the front desk and retrieve towels. On two separate occasions we had so many towels and so much trash that we had to push it into the hall and force housekeeping to do their job because simply asking them was not working. It claims to be green but this motel 6 had more coke, candy, and ice cream machines in the lobby than any other I have seen. If you're wanting a continental breakfast in the morning, don't expect anything other than coffee, if it's made. The Wi-Fi access is limited. If you're planning on trying to hook up a game console, don't.  Their system will not support it and their techs have limited knowledge of their own system.  Also be ready to pay daily for you're Wi-Fi access. The service at the front desk was speratic.  Depending on who was there. Most of the clerks came off as not wanting to do anything other than accept your hard earned money with a frown on their face. I hope that whoever reads this will understand that this is a review of my experience and does not mean that their service will be as bad. Although the motel layout will be the same. This is a real review from boogieman7878@gmail.com that stayed in room 329.                     Thanks, Chris R.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r133544720-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>133544720</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>It was better than I expected</t>
+  </si>
+  <si>
+    <t>I like the new design it makes a small room feel better than it is. I have stayed at motel 6's that were way too cramped and hard to get around this one is nice.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r128263687-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -603,9 +820,6 @@
     <t>If you are asking me, the hotel is pretty good based on what I am looking for in a hotel.  It must be clean, fairly new and close to the road/good location.  My DH has a different set of criteria.  I gave this hotel an average rating because the bed is not very soft.  If you have to sleep on it for more than 1 night, forget it.  It would be a pain in the neck (literally, maybe!).  I enjoy this motel because of it's convenient location, newness, cleanliness, and the fact that it is easy to get to.  The drawbacks of this motel is that it doesn't have breakfast in the morning and that it doesn't have lots of storage space for your things.  I have always felt safe staying at this motel.More</t>
   </si>
   <si>
-    <t>cwa8807</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r124556894-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -627,9 +841,6 @@
     <t>I stayed at this hotel for 2 days and i have to say that i was quite took with the changes motel 6 has done. The rooms are smaller than the old ones but the things they have done such as the newer style beds, hardwood floors, walk in shower and a great place to store your items. I have to say that even being a motel 6 this was a new change to me being that i was use to a cheep motel for the price and this was still great on price just a few things i didnt like. I had to leave early due to a oncoming snow storm and they wouldn't refund me the amount that i had payed which was bull so there evening customer service was no good, a little noise at night form other rooms not as much as it could of been and when the maid came in to clean she had threw most of my stuff onto the floor which i thought was unprofessional. Overall this is a great place and i would stay again.More</t>
   </si>
   <si>
-    <t>MateoVerito</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r115455448-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -648,7 +859,50 @@
     <t>July 2011</t>
   </si>
   <si>
-    <t>Japheaux</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r80207926-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>80207926</t>
+  </si>
+  <si>
+    <t>09/19/2010</t>
+  </si>
+  <si>
+    <t>Wouldn't Recommend To Anyone!</t>
+  </si>
+  <si>
+    <t>Worse Hotel experience ever!  We had this motel booked for 3 nights because we were racing at Texas Motor Speedway.  Although the convenience to the track was great that is all I can say.  The rooms are quite small, beds are uncomfortable, no amenities unless you want coffee, or free ice.  Had to pay $2.99 for 24 hours of Wi-Fi.  The kicker was on the last 2 nights when we found bugs!  First bug was crawling on a table and we over looked it.  Second night they were in the bed and manager told us they were ticks!  Needless to say we checked out 1:00 in the morning and drove 5 hours home.  Argued for 30 minutes and finally got a refund but not without quite a battle.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Worse Hotel experience ever!  We had this motel booked for 3 nights because we were racing at Texas Motor Speedway.  Although the convenience to the track was great that is all I can say.  The rooms are quite small, beds are uncomfortable, no amenities unless you want coffee, or free ice.  Had to pay $2.99 for 24 hours of Wi-Fi.  The kicker was on the last 2 nights when we found bugs!  First bug was crawling on a table and we over looked it.  Second night they were in the bed and manager told us they were ticks!  Needless to say we checked out 1:00 in the morning and drove 5 hours home.  Argued for 30 minutes and finally got a refund but not without quite a battle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r73333808-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>73333808</t>
+  </si>
+  <si>
+    <t>08/01/2010</t>
+  </si>
+  <si>
+    <t>Great for race fans, cheapsters, and those curious about the "new" Motel 6</t>
+  </si>
+  <si>
+    <t>I stayed at this new Motel 6 for the June race weekend. I loved that I could see TMS out my window! Speedway access was fabulous--from my room to Express Parking in 10 minutes. That alone made it worth the stay.
+The room decor was like a dorm, a Carnival cruise, and an RV combined: everything very compact, lots of Formica, built-in furniture. I personally found it charming, being a closet fan of that cheap eurocrap design aesthetic that all my friends pretend to hate but then you see them shopping at IKEA. The digitally-controlled AC was quiet and didn't wake me up whenever it kicked on. Bed was comfy. Nice bathroom, but of course being Motel 6 they don't provide shampoo &amp; Kleenex. C'est la vie. Bring your own. If you're staying here you almost certainly drove and don't face airline luggage limits anyway. There are numerous well-placed electrical outlets and the Internet port (2.99/day) is conveniently located at the built-in table. The concierge was polite and knew the area. I can't remember the exact room rate but I think it was around $70/night--unbelievably cheap for a race weekend and that close to the track.
+More than one occupant would be "cozy" in the queen room if you don't travel light, and on race weekend you certainly have multiple outfits, cooler, refreshments, chapeau, scanner, merchandise, etc. There are clever places to put it all, but not much room to...I stayed at this new Motel 6 for the June race weekend. I loved that I could see TMS out my window! Speedway access was fabulous--from my room to Express Parking in 10 minutes. That alone made it worth the stay.The room decor was like a dorm, a Carnival cruise, and an RV combined: everything very compact, lots of Formica, built-in furniture. I personally found it charming, being a closet fan of that cheap eurocrap design aesthetic that all my friends pretend to hate but then you see them shopping at IKEA. The digitally-controlled AC was quiet and didn't wake me up whenever it kicked on. Bed was comfy. Nice bathroom, but of course being Motel 6 they don't provide shampoo &amp; Kleenex. C'est la vie. Bring your own. If you're staying here you almost certainly drove and don't face airline luggage limits anyway. There are numerous well-placed electrical outlets and the Internet port (2.99/day) is conveniently located at the built-in table. The concierge was polite and knew the area. I can't remember the exact room rate but I think it was around $70/night--unbelievably cheap for a race weekend and that close to the track.More than one occupant would be "cozy" in the queen room if you don't travel light, and on race weekend you certainly have multiple outfits, cooler, refreshments, chapeau, scanner, merchandise, etc. There are clever places to put it all, but not much room to move around otherwise. The table area in my room was dirty (food crumbs and greasy fingerprints) but since it's all hard surfaces, it was a cinch to clean everything except the linens with Clorox wipes, even the chair and vinyl bench seat. The floor is laminate so you could actually sanitize that too if you want. (So much better than disgusting upholstered hotel room chairs and carpet--someday those will be illegal, along with unwashed bedspreads that you know have got unspeakable stains on them.) This motel allows smoking and the clientele on race weekend definitely favors smokers. It's too bad that an allergy sufferer can wipe down practically the whole room only to get a headache from ciggie odor. But then an allergy sufferer who knowingly spends many hours outdoors at the speedway is well on her deserved way to a massive pollen/mold headache, smoky motel or not. Shut up and medicate yourself. Foo, that's what ibuprofen is for.Mgmt: Seriously. Why on earth is there no SPEED Channel at a motel within sight of a major speedway? Don't even tell me it's to save a buck.Satisfied overall and I would probably stay there again while it's still fairly new. Between the smoke smell and the highly scratchable Formica I don't think it will age well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I stayed at this new Motel 6 for the June race weekend. I loved that I could see TMS out my window! Speedway access was fabulous--from my room to Express Parking in 10 minutes. That alone made it worth the stay.
+The room decor was like a dorm, a Carnival cruise, and an RV combined: everything very compact, lots of Formica, built-in furniture. I personally found it charming, being a closet fan of that cheap eurocrap design aesthetic that all my friends pretend to hate but then you see them shopping at IKEA. The digitally-controlled AC was quiet and didn't wake me up whenever it kicked on. Bed was comfy. Nice bathroom, but of course being Motel 6 they don't provide shampoo &amp; Kleenex. C'est la vie. Bring your own. If you're staying here you almost certainly drove and don't face airline luggage limits anyway. There are numerous well-placed electrical outlets and the Internet port (2.99/day) is conveniently located at the built-in table. The concierge was polite and knew the area. I can't remember the exact room rate but I think it was around $70/night--unbelievably cheap for a race weekend and that close to the track.
+More than one occupant would be "cozy" in the queen room if you don't travel light, and on race weekend you certainly have multiple outfits, cooler, refreshments, chapeau, scanner, merchandise, etc. There are clever places to put it all, but not much room to...I stayed at this new Motel 6 for the June race weekend. I loved that I could see TMS out my window! Speedway access was fabulous--from my room to Express Parking in 10 minutes. That alone made it worth the stay.The room decor was like a dorm, a Carnival cruise, and an RV combined: everything very compact, lots of Formica, built-in furniture. I personally found it charming, being a closet fan of that cheap eurocrap design aesthetic that all my friends pretend to hate but then you see them shopping at IKEA. The digitally-controlled AC was quiet and didn't wake me up whenever it kicked on. Bed was comfy. Nice bathroom, but of course being Motel 6 they don't provide shampoo &amp; Kleenex. C'est la vie. Bring your own. If you're staying here you almost certainly drove and don't face airline luggage limits anyway. There are numerous well-placed electrical outlets and the Internet port (2.99/day) is conveniently located at the built-in table. The concierge was polite and knew the area. I can't remember the exact room rate but I think it was around $70/night--unbelievably cheap for a race weekend and that close to the track.More than one occupant would be "cozy" in the queen room if you don't travel light, and on race weekend you certainly have multiple outfits, cooler, refreshments, chapeau, scanner, merchandise, etc. There are clever places to put it all, but not much room to move around otherwise. The table area in my room was dirty (food crumbs and greasy fingerprints) but since it's all hard surfaces, it was a cinch to clean everything except the linens with Clorox wipes, even the chair and vinyl bench seat. The floor is laminate so you could actually sanitize that too if you want. (So much better than disgusting upholstered hotel room chairs and carpet--someday those will be illegal, along with unwashed bedspreads that you know have got unspeakable stains on them.) This motel allows smoking and the clientele on race weekend definitely favors smokers. It's too bad that an allergy sufferer can wipe down practically the whole room only to get a headache from ciggie odor. But then an allergy sufferer who knowingly spends many hours outdoors at the speedway is well on her deserved way to a massive pollen/mold headache, smoky motel or not. Shut up and medicate yourself. Foo, that's what ibuprofen is for.Mgmt: Seriously. Why on earth is there no SPEED Channel at a motel within sight of a major speedway? Don't even tell me it's to save a buck.Satisfied overall and I would probably stay there again while it's still fairly new. Between the smoke smell and the highly scratchable Formica I don't think it will age well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r61223012-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -672,9 +926,6 @@
     <t>Booked this room online while passing through the area.  After tax I think it was $40 for the night.  Had soap, but no shampoo/conditioner, no alarm clock, etc., but for $40 it was perfect.  Fairly new, it had a flat screen TV with HDMI, component, and USB inputs on a panel in front and the room appeared to be decorated by IKEA with modular room components.  Easy access to get on and off I-35W.  The room was very clean.  If you are looking for a super-plush bed, this is not for you. The beds were comfortable, but not the pillow top type.  Passing back through I stayed there again for the same price.  This is perfect value if what you are looking for is a clean room at a decent price.Refrigerator in room, shower with door (not shower curtain), synthetic wood flooring, and a small nook area for eating/laptop use.  In a nutshell, a real bargain for someone passing through looking for a place to bed down!Multi-vending machine area near front desk for everything from shampoo to ice-cream.Near Texas Motor Speedway, so this site most likely will be crazy on race weekends.More</t>
   </si>
   <si>
-    <t>gnetch</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r59121824-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
   </si>
   <si>
@@ -691,9 +942,6 @@
   </si>
   <si>
     <t>March 2010</t>
-  </si>
-  <si>
-    <t>bxb4784f</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r58587010-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
@@ -714,6 +962,27 @@
   <si>
     <t>While in town for a amateur race, I decided to stay here since the hotel was across the Interstate from the track and was newly built.  I found it very easy to find, and the web rate was a great deal.  The service at the front desk was excellent, and I was given a choice of floor as well.  The room was the newer style, modern and contemporary and seemed pretty clean.  The comforter seemed a little dingy for being a newer hotel, but the sheets were clean as was the rest of the room.  It was a little on the small side, but since I was solo this trip it was enough for me.  The flat screen tv also had inputs for portable media or gaming systems as well.  The vending area downstairs was very clean and the free coffee was well stocked.  The wifi was $2.99 per 24 hr period, and was fast and easy to use as well.
 One negative point should be noted.  While this one didnt bother me, it could be an issue for those who are light sleepers or on busy weekends.  This hotel is new but the sound insulation isnt what i thought it would be.  I woke up the last day to maintenence men standing around chatting about something or other.  Door slams can boom through the hallway, and remember you are DIRECTLY across the road from a major motor speedway which...While in town for a amateur race, I decided to stay here since the hotel was across the Interstate from the track and was newly built.  I found it very easy to find, and the web rate was a great deal.  The service at the front desk was excellent, and I was given a choice of floor as well.  The room was the newer style, modern and contemporary and seemed pretty clean.  The comforter seemed a little dingy for being a newer hotel, but the sheets were clean as was the rest of the room.  It was a little on the small side, but since I was solo this trip it was enough for me.  The flat screen tv also had inputs for portable media or gaming systems as well.  The vending area downstairs was very clean and the free coffee was well stocked.  The wifi was $2.99 per 24 hr period, and was fast and easy to use as well.One negative point should be noted.  While this one didnt bother me, it could be an issue for those who are light sleepers or on busy weekends.  This hotel is new but the sound insulation isnt what i thought it would be.  I woke up the last day to maintenence men standing around chatting about something or other.  Door slams can boom through the hallway, and remember you are DIRECTLY across the road from a major motor speedway which has races on almost all days of one class or another.  The sound of cars running on a track may be music to my ears, but not to yours.  In the end, I got a great value for what I paid, and wouldn't mind staying here again.  The rates are good, the rooms are nice and if you know what to expect you will be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56555-d1597706-r50523585-Motel_6_Ft_Worth_Northlake_Speedway-Roanoke_Texas.html</t>
+  </si>
+  <si>
+    <t>50523585</t>
+  </si>
+  <si>
+    <t>12/02/2009</t>
+  </si>
+  <si>
+    <t>Negative Experience</t>
+  </si>
+  <si>
+    <t>I stayed here for one night at the end of November while on business to try and save some money. The building is brand new with a unique design. The room includes a flat panel TV, but lacks a clock of any kind and no clothes iron is available. I didn't stay here expecting much, but because it was a brand new building I thought it would have decent sound insulation. However, I was wrong. I could hear everything that was going on out in the hallway. Every time an adjoining room's door would slam the wall behind the bed would shake and the light fixture would rattle. Needless to say I had trouble sleeping that night. When I was still awake at 1am I decided I needed to stay at the nearby Marriott the following night. The staff was less than welcoming, and didn't have a problem with smoking at the main entrance with the door open so guests would have to walk through their smoke to get in or out. I wouldn't recommend staying here unless you're traveling for leisure, want to save some money, and don't mind some noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>I stayed here for one night at the end of November while on business to try and save some money. The building is brand new with a unique design. The room includes a flat panel TV, but lacks a clock of any kind and no clothes iron is available. I didn't stay here expecting much, but because it was a brand new building I thought it would have decent sound insulation. However, I was wrong. I could hear everything that was going on out in the hallway. Every time an adjoining room's door would slam the wall behind the bed would shake and the light fixture would rattle. Needless to say I had trouble sleeping that night. When I was still awake at 1am I decided I needed to stay at the nearby Marriott the following night. The staff was less than welcoming, and didn't have a problem with smoking at the main entrance with the door open so guests would have to walk through their smoke to get in or out. I wouldn't recommend staying here unless you're traveling for leisure, want to save some money, and don't mind some noise.More</t>
   </si>
 </sst>
 </file>
@@ -1218,47 +1487,43 @@
       <c r="A2" t="n">
         <v>59027</v>
       </c>
-      <c r="B2" t="n">
-        <v>169448</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1272,200 +1537,176 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59027</v>
       </c>
-      <c r="B3" t="n">
-        <v>169449</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59027</v>
       </c>
-      <c r="B4" t="n">
-        <v>169450</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59027</v>
       </c>
-      <c r="B5" t="n">
-        <v>169451</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1473,66 +1714,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59027</v>
       </c>
-      <c r="B6" t="n">
-        <v>169452</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1540,54 +1777,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59027</v>
       </c>
-      <c r="B7" t="n">
-        <v>21068</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1601,61 +1834,59 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59027</v>
       </c>
-      <c r="B8" t="n">
-        <v>20567</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>4</v>
@@ -1666,45 +1897,41 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59027</v>
       </c>
-      <c r="B9" t="n">
-        <v>169453</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -1713,133 +1940,133 @@
         <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59027</v>
       </c>
-      <c r="B10" t="n">
-        <v>13557</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X10" t="s">
-        <v>114</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59027</v>
       </c>
-      <c r="B11" t="n">
-        <v>169454</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1853,64 +2080,60 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59027</v>
       </c>
-      <c r="B12" t="n">
-        <v>32323</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1918,54 +2141,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59027</v>
       </c>
-      <c r="B13" t="n">
-        <v>86956</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1979,70 +2198,60 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59027</v>
       </c>
-      <c r="B14" t="n">
-        <v>169455</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2050,267 +2259,229 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59027</v>
       </c>
-      <c r="B15" t="n">
-        <v>3489</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59027</v>
       </c>
-      <c r="B16" t="n">
-        <v>169456</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
         <v>60</v>
       </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59027</v>
       </c>
-      <c r="B17" t="n">
-        <v>169457</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17" t="s">
+        <v>150</v>
+      </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59027</v>
       </c>
-      <c r="B18" t="n">
-        <v>169458</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2321,140 +2492,124 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>158</v>
+      </c>
+      <c r="X18" t="s">
+        <v>159</v>
+      </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59027</v>
       </c>
-      <c r="B19" t="n">
-        <v>169459</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59027</v>
       </c>
-      <c r="B20" t="n">
-        <v>42347</v>
-      </c>
-      <c r="C20" t="s">
-        <v>183</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2462,137 +2617,119 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59027</v>
       </c>
-      <c r="B21" t="n">
-        <v>169460</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59027</v>
       </c>
-      <c r="B22" t="n">
-        <v>169461</v>
-      </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2600,70 +2737,62 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59027</v>
       </c>
-      <c r="B23" t="n">
-        <v>169462</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>212</v>
-      </c>
-      <c r="O23" t="s">
-        <v>138</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2671,70 +2800,66 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59027</v>
       </c>
-      <c r="B24" t="n">
-        <v>169463</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2742,70 +2867,66 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59027</v>
       </c>
-      <c r="B25" t="n">
-        <v>40864</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2813,7 +2934,1116 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
         <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>267</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>287</v>
+      </c>
+      <c r="O38" t="s">
+        <v>85</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" t="s">
+        <v>293</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" t="s">
+        <v>180</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>303</v>
+      </c>
+      <c r="J41" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" t="s">
+        <v>306</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59027</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
